--- a/biology/Botanique/François-Nicolas-Henri_Racine_de_Monville/François-Nicolas-Henri_Racine_de_Monville.xlsx
+++ b/biology/Botanique/François-Nicolas-Henri_Racine_de_Monville/François-Nicolas-Henri_Racine_de_Monville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Nicolas-Henri_Racine_de_Monville</t>
+          <t>François-Nicolas-Henri_Racine_de_Monville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Nicolas-Henri Racine du Jonquoy, sieur de Monville et de Thuit (proche des Andelys), baptisé le 4 octobre 1734 à Paris, où il est mort le 8 mars 1797, est un rentier français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Nicolas-Henri_Racine_de_Monville</t>
+          <t>François-Nicolas-Henri_Racine_de_Monville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevé par son grand-père, Monville mène une vie de luxe et d’oisiveté de riche célibataire passionné de sport, de musique et d’équitation jusqu'à son mariage, le 29 septembre 1755 avec sa cousine Anne-Charlotte Lucas de Boncourt, qui mourra six ans plus tard. En 1757, il remplace Antoine Pecquet au poste de grand maître des eaux-et-forêts au département de Rouen. Il occupera ce poste jusqu'en 1765.
 Le considérable héritage que lui a laissé son grand-père maternel, qui était fermier général, lui permettra, entre autres, de faire construire, rue d’Anjou, en 1766 par Boullée les Grand et Petit Hôtels de Monville, demeures de style néoclassique de sa conception. Tous deux seront démolis au XIXe siècle lors du percement du boulevard Malesherbes.
